--- a/artifact/data/ws-03.data.xlsx
+++ b/artifact/data/ws-03.data.xlsx
@@ -5,19 +5,20 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexiality/tutorials/artifact/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/ep/sentry/tutorial-workspace/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="40960" windowHeight="10480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="-20560" windowWidth="33600" windowHeight="20560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
     <sheet name="JSON2" sheetId="4" r:id="rId2"/>
     <sheet name="XML" sheetId="3" r:id="rId3"/>
+    <sheet name="Soap" sheetId="5" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="base">'[1]#system'!$B$2:$B$24</definedName>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>true</t>
   </si>
@@ -125,6 +126,24 @@
   </si>
   <si>
     <t>$(syspath|out|fullpath)/A_List.json</t>
+  </si>
+  <si>
+    <t>soap request payload</t>
+  </si>
+  <si>
+    <t>$(syspath|data|fullpath)/soap-request.xml</t>
+  </si>
+  <si>
+    <t>soap url</t>
+  </si>
+  <si>
+    <t>http://secure.smartbearsoftware.com/samples/testcomplete12/webservices/Service.asmx</t>
+  </si>
+  <si>
+    <t>soap action</t>
+  </si>
+  <si>
+    <t>http://smartbear.com/GetSampleObject</t>
   </si>
 </sst>
 </file>
@@ -253,7 +272,202 @@
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="45">
+  <dxfs count="60">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1131,7 +1345,7 @@
   <dimension ref="A1:AAA10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1246,59 +1460,59 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A8 A11:A1048576">
-    <cfRule type="beginsWith" dxfId="44" priority="11" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="59" priority="11" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="43" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="58" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="42" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="57" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B8 B11:B1048576">
-    <cfRule type="expression" dxfId="41" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="40" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="55" priority="15">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="beginsWith" dxfId="39" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="54" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="38" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="53" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="37" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="52" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="35" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="50" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="34" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="49" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A9,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="33" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="48" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A9,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="32" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="47" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="30" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="45" priority="5">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1421,59 +1635,59 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A8 A11:A1048576">
-    <cfRule type="beginsWith" dxfId="29" priority="11" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="44" priority="11" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="28" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="43" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="42" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B8 B11:B1048576">
-    <cfRule type="expression" dxfId="26" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="25" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="40" priority="15">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="beginsWith" dxfId="24" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="39" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="38" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="37" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="20" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="35" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="34" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A9,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="33" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A9,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="5">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1487,7 +1701,7 @@
   <dimension ref="A1:AAA10"/>
   <sheetViews>
     <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
@@ -1548,6 +1762,151 @@
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A8 A11:A1048576">
+    <cfRule type="beginsWith" dxfId="29" priority="11" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="28" priority="12" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A1,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="27" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B8 B11:B1048576">
+    <cfRule type="expression" dxfId="26" priority="14" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="25" priority="15">
+      <formula>LEN(TRIM(B1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="beginsWith" dxfId="24" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="23" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="22" priority="8" stopIfTrue="1">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="20" priority="10">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+      <formula>LEFT(A9,LEN("sentry.scope."))="sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+      <formula>LEFT(A9,LEN("sentry."))="sentry."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
+      <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1DB7D24-11B6-A749-B7FD-83029478B58D}">
+  <dimension ref="A1:AAA10"/>
+  <sheetViews>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="1" width="34" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.83203125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="9" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="27" width="21.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="16384" width="10.83203125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:703">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="HA1" s="6"/>
+      <c r="AAA1" s="6"/>
+    </row>
+    <row r="2" spans="1:703">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="HA2" s="6"/>
+      <c r="AAA2" s="6"/>
+    </row>
+    <row r="3" spans="1:703">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="HA3" s="6"/>
+      <c r="AAA3" s="6"/>
+    </row>
+    <row r="4" spans="1:703">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="HA4" s="4"/>
+      <c r="AAA4" s="5"/>
+    </row>
+    <row r="5" spans="1:703">
+      <c r="HA5" s="4"/>
+      <c r="AAA5" s="5"/>
+    </row>
+    <row r="6" spans="1:703">
+      <c r="HA6" s="4"/>
+      <c r="AAA6" s="5"/>
+    </row>
+    <row r="7" spans="1:703">
+      <c r="HA7" s="4"/>
+      <c r="AAA7" s="5"/>
+    </row>
+    <row r="8" spans="1:703">
+      <c r="HA8" s="4"/>
+      <c r="AAA8" s="5"/>
+    </row>
+    <row r="9" spans="1:703">
+      <c r="HA9" s="4"/>
+      <c r="AAA9" s="5"/>
+    </row>
+    <row r="10" spans="1:703">
+      <c r="HA10" s="4"/>
+      <c r="AAA10" s="5"/>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
+  <conditionalFormatting sqref="A1:A8 A11:A1048576">
     <cfRule type="beginsWith" dxfId="14" priority="11" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A1,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>

--- a/artifact/data/ws-03.data.xlsx
+++ b/artifact/data/ws-03.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE891EDF-4118-804B-BAB6-43C9A2A29E9F}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F55321A-2DE7-4E49-8CBA-19E039DA210C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="7040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="17880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -281,34 +281,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="62">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <u val="none"/>
-        <color theme="0" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -696,6 +668,34 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <u val="none"/>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1380,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="167" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -4305,9 +4305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B79F72F-9F7D-C54E-A7C5-DC46DB987408}">
   <dimension ref="A1:AAA5"/>
   <sheetViews>
-    <sheetView zoomScale="177" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
   <cols>
@@ -6523,10 +6521,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="1" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="30" priority="2">
       <formula>LEN(TRIM(B6))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7306,59 +7304,59 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A8 A11:A1048576">
-    <cfRule type="beginsWith" dxfId="31" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="29" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="30" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="28" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="29" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="27" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B8 B11:B1048576">
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="27" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="25" priority="15">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="beginsWith" dxfId="26" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="24" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="25" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="23" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="24" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="22" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="22" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="20" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="21" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="19" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A9,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="18" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A9,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="19" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="17" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="17" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="5">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10245,59 +10243,59 @@
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <conditionalFormatting sqref="A1:A8 A11:A1048576">
-    <cfRule type="beginsWith" dxfId="16" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
+    <cfRule type="beginsWith" dxfId="14" priority="11" stopIfTrue="1" operator="beginsWith" text="nexial.scope.">
       <formula>LEFT(A1,LEN("nexial.scope."))="nexial.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="15" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
+    <cfRule type="beginsWith" dxfId="13" priority="12" stopIfTrue="1" operator="beginsWith" text="nexial.">
       <formula>LEFT(A1,LEN("nexial."))="nexial."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B8 B11:B1048576">
-    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="14" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="15">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="15">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10">
-    <cfRule type="beginsWith" dxfId="11" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="9" priority="6" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A10,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="10" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="8" priority="7" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A10,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="9" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="7" priority="10">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(B10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="beginsWith" dxfId="6" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
+    <cfRule type="beginsWith" dxfId="4" priority="1" stopIfTrue="1" operator="beginsWith" text="sentry.scope.">
       <formula>LEFT(A9,LEN("sentry.scope."))="sentry.scope."</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="5" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
+    <cfRule type="beginsWith" dxfId="3" priority="2" stopIfTrue="1" operator="beginsWith" text="sentry.">
       <formula>LEFT(A9,LEN("sentry."))="sentry."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="4" priority="3" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3" stopIfTrue="1">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="4" stopIfTrue="1">
       <formula>LEFT(OFFSET(INDIRECT(ADDRESS(ROW(),COLUMN())),0,-1), 13) = "sentry.scope."</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(B9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
